--- a/biology/Zoologie/Holasteroida/Holasteroida.xlsx
+++ b/biology/Zoologie/Holasteroida/Holasteroida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holasteroida sont un ordre d'oursins irréguliers du groupe des Atelostomata (oursins irréguliers sans mâchoire).
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Holasteroida a été créé par John Wyatt Durham (d) et Richard Valentine Melville (d) en 1957.
 </t>
@@ -542,22 +556,21 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oursins sont marqués par une symétrie bilatérale affirmée, y compris pour le disque apical, allongé en longueur.
 La bouche ne contient pas de Lanterne d'Aristote.
 Le test est rigide et aplati.
 Le disque apical est de forme allongée, l'anus ayant migré vers la périphérie du test.
-Le plastron n'est jamais amphisterne[1].
+Le plastron n'est jamais amphisterne.
 			Pourtalesia wandeli (espèce actuelle abyssale, famille des Pourtalesiidae).
 			Urechinus reticulatus (espèce actuelle abyssale, famille des Urechinidae).
 			Plexechinus spectabilis (espèce actuelle abyssale, famille des Plexechinidae).
 			Fossile de Hemipneustes pyrenaicus, Crétacé supérieur (Maastrichtien)
 			Fossile de Echinocorys sulcata.
-Cet ordre semble être apparu au Crétacé inférieur (Berriasien)[1].
-Taxinomie
-Liste des familles et genres
-Cet ordre ne contient plus qu'une poignée d'espèces survivantes à l'heure actuelle (principalement dans les abysses). Il connut cependant une radiation évolutive importante au Crétacé, où ses représentants étaient abondants et largement répartis[1].
+Cet ordre semble être apparu au Crétacé inférieur (Berriasien).
 </t>
         </is>
       </c>
@@ -583,13 +596,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des familles et genres
+Cet ordre ne contient plus qu'une poignée d'espèces survivantes à l'heure actuelle (principalement dans les abysses). Il connut cependant une radiation évolutive importante au Crétacé, où ses représentants étaient abondants et largement répartis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holasteroida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Holasteroida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Controverses taxinomiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La base de données NCBI  (14 septembre 2013)[4] préfère classer les Holasteroida comme un super-ordre au sein de la sous-classe des Euechinoidea, alors que World Register of Marine Species                               (4 février 2015)[2] les place pour sa part comme ordre au sein du super-ordre des Atelostomata, dans l'infra-classe des Irregularia. 
-La base de données ITIS      (14 septembre 2013)[5] ne connait pas ce taxon.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base de données NCBI  (14 septembre 2013) préfère classer les Holasteroida comme un super-ordre au sein de la sous-classe des Euechinoidea, alors que World Register of Marine Species                               (4 février 2015) les place pour sa part comme ordre au sein du super-ordre des Atelostomata, dans l'infra-classe des Irregularia. 
+La base de données ITIS      (14 septembre 2013) ne connait pas ce taxon.
 </t>
         </is>
       </c>
